--- a/2D_Data-Set_All-Country_Inflation-Rate.xlsx
+++ b/2D_Data-Set_All-Country_Inflation-Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/elvern_tanny_mymail_sutd_edu_sg/Documents/SUTD Lesson/TERM 3/(10.020) Data Driven World/DDW Repos/2D_Project_Term-3/2D_Project_Term-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E635533B-1D7B-46AE-874A-5603DB2A7A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DB6D8453-8A10-4DA9-A202-6A6470FAE3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58140511-BE1F-43EE-AEA4-ECF93EA42ED8}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1095" windowWidth="25680" windowHeight="20505" xr2:uid="{6A3B120E-8745-42DC-9AF2-FEA9AC144700}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E704C3A3-EAD9-465C-A775-378527AA0D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="601">
   <si>
     <t>Country Name</t>
   </si>
@@ -1836,6 +1836,9 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -2186,17 +2189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3ABB89-B143-46FC-9851-690D41A4204F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48A12CC-CCC2-43B0-B323-9992518FC14A}">
   <dimension ref="A1:BN267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BN267"/>
+    <sheetView tabSelected="1" topLeftCell="AC135" workbookViewId="0">
+      <selection activeCell="BN162" sqref="BN162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2985,6 +2985,9 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
+      <c r="I7" t="s">
+        <v>600</v>
+      </c>
       <c r="AK7">
         <v>226.00542125352601</v>
       </c>
@@ -24072,6 +24075,9 @@
       </c>
       <c r="BL162">
         <v>8.8250669680456202</v>
+      </c>
+      <c r="BM162">
+        <v>7.0923873400000002</v>
       </c>
     </row>
     <row r="163" spans="1:66" x14ac:dyDescent="0.25">
